--- a/notebooks/jesuitas-entrada-full.xlsx
+++ b/notebooks/jesuitas-entrada-full.xlsx
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2280,7 +2280,11 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Segundo Dominguez &amp; O Neil, V.III,p.2961"}}</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -12206,7 +12210,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Louis Buglio 1688"}}</t>
+          <t>extra_info: {"value": {"comment": "Segundo Louis Buglio 1688"}}</t>
         </is>
       </c>
     </row>
@@ -23671,7 +23675,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23696,7 +23700,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 15600325"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 15600325"}, "value": {"comment": "Domingues &amp; O Neil, IV: 2645"}}</t>
         </is>
       </c>
     </row>

--- a/notebooks/jesuitas-entrada-full.xlsx
+++ b/notebooks/jesuitas-entrada-full.xlsx
@@ -3142,7 +3142,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Goa, Índia</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3163,7 +3163,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q1171", "original": "Goa, \u00cdndia"}}</t>
         </is>
       </c>
     </row>
@@ -18861,7 +18861,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "Em Coimbra no ano de 1582 segundo a Carta Annua de 1623."}}</t>
+          <t>Corrigido: local de entrada extra_info: {"value": {"comment": "Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA"}}</t>
         </is>
       </c>
     </row>
@@ -23793,7 +23793,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Itália (Luca)</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">

--- a/notebooks/jesuitas-entrada-full.xlsx
+++ b/notebooks/jesuitas-entrada-full.xlsx
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2006,7 +2006,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "entra para a China"}, "value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"date": {"comment": "entra para a China"}, "value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"value": {"comment": "[Arroios Rodrigues, Hist\u00f3ria Da Companhia de Jesus Na Assist\u00eancia de Portugal v4:167] @wikidata:Q597"}}</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2656"}}</t>
+          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q13666"}}</t>
+          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q13666"}}</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"value": {"comment": "[Arroios Rodrigues, Hist\u00f3ria Da Companhia de Jesus Na Assist\u00eancia de Portugal v4:167] @wikidata:Q597"}}</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14960"}}</t>
+          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
         </is>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Montmartre</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Será que vale mesmo a pena chamar-lhe entrada? extra_info: {"value": {"comment": "@wikidata:Q186115"}}</t>
+          <t>Será que vale mesmo a pena chamar-lhe entrada? extra_info: {"value": {"comment": "(Montmartre) @wikidata:Q186115"}}</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Montmartre</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11481,7 +11481,7 @@
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Será que vale mesmo a pena chamar-lhe entrada? extra_info: {"value": {"comment": "@wikidata:Q186115"}}</t>
+          <t>Será que vale mesmo a pena chamar-lhe entrada? extra_info: {"value": {"comment": "(Montmartre) @wikidata:Q186115"}}</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 16840918"}, "value": {"comment": "@wikidata:Q14960"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 16840918"}, "value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12299,12 +12299,12 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2656"}}</t>
+          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
         </is>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q111218"}}</t>
+          <t>"https://roccadellacultura.it/opere-e-contenuti/la-spezieria-dei-gesuiti-di-novellara" extra_info: {"value": {"comment": "@wikidata:Q111218"}}</t>
         </is>
       </c>
     </row>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13982,12 +13982,12 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2656"}}</t>
+          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14353,12 +14353,12 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -16220,7 +16220,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "j\u00e1 padre"}, "value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"date": {"comment": "j\u00e1 padre"}, "value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14960"}}</t>
+          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
         </is>
       </c>
     </row>
@@ -20783,7 +20783,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:@wikidata:Q15041623"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:@wikidata:Q15041623", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14960"}}</t>
+          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
         </is>
       </c>
     </row>
@@ -22764,7 +22764,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22789,7 +22789,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>destinado à China em 1785, viagem abortada extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>destinado à China em 1785, viagem abortada extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -23044,7 +23044,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>antes entrara na ordem de Malta em 16120518 diz Dehergne «La première entrée — avant « l'âge de raison » — est une « E. de dévotion », désirée par ses parents, qui consacrent leur fils au Seigneur et le revêtent des habits de l'Ordre, les Chevaliers de Malte.» extra_info: {"value": {"comment": "@wikidata:Q2656"}}</t>
+          <t>antes entrara na ordem de Malta em 16120518 diz Dehergne «La première entrée — avant « l'âge de raison » — est une « E. de dévotion », désirée par ses parents, qui consacrent leur fils au Seigneur et le revêtent des habits de l'Ordre, les Chevaliers de Malte.» extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
         </is>
       </c>
     </row>
@@ -23809,7 +23809,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>Caltavuturo, Palermo, Sicília</t>
+          <t>Caltavuturo, Palermo</t>
         </is>
       </c>
       <c r="G669" t="inlineStr"/>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -27622,12 +27622,12 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -28306,7 +28306,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q13666"}}</t>
+          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q13666"}}</t>
         </is>
       </c>
     </row>
@@ -30323,7 +30323,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -30348,7 +30348,7 @@
       </c>
       <c r="G855" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1741"}}</t>
+          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
         </is>
       </c>
     </row>
@@ -31849,7 +31849,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Fraça</t>
+          <t>França</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>Fraça</t>
+          <t>França</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
@@ -32229,7 +32229,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -32254,7 +32254,7 @@
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Shiuchow, Chao-tcheou fou</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -32530,7 +32530,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}}</t>
+          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}, "value": {"original": "Chao-tcheou fou"}}</t>
         </is>
       </c>
     </row>
@@ -32542,7 +32542,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Shiuchow, Chao-tcheou fou</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -32559,7 +32559,7 @@
       <c r="F918" t="inlineStr"/>
       <c r="G918" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}}</t>
+          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}, "value": {"original": "Chao-tcheou fou"}}</t>
         </is>
       </c>
     </row>
@@ -33806,7 +33806,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>Novellario</t>
+          <t>Novellara</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -33831,7 +33831,7 @@
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "ILOC"}}</t>
+          <t>extra_info: {"value": {"comment": "[Assume-se Novellara, nascido a 40km] @wikidata:Q111218", "original": "Novellario"}}</t>
         </is>
       </c>
     </row>
@@ -34053,7 +34053,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -34078,7 +34078,7 @@
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "destinado \u00e0 China"}, "value": {"comment": "@wikidata:Q597"}}</t>
+          <t>extra_info: {"date": {"comment": "destinado \u00e0 China"}, "value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -34180,7 +34180,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G964" t="inlineStr"/>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -34251,7 +34251,7 @@
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14960"}}</t>
+          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
         </is>
       </c>
     </row>
@@ -34263,7 +34263,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -34288,7 +34288,7 @@
       </c>
       <c r="G967" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14960"}}</t>
+          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
         </is>
       </c>
     </row>

--- a/notebooks/jesuitas-entrada-full.xlsx
+++ b/notebooks/jesuitas-entrada-full.xlsx
@@ -12139,7 +12139,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Segundo Louis Buglio 1688", "original": "Coimbra"}}</t>
+          <t>extra_info: {"value": {"comment": "Segundo Louis Buglio 1688", "original": "?"}}</t>
         </is>
       </c>
     </row>

--- a/notebooks/jesuitas-entrada-full.xlsx
+++ b/notebooks/jesuitas-entrada-full.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Landsberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[JRC Entrou em Landsberg, Alemanha segundo "http://www.conimbricenses.org/encyclopedia/aigenler-adam/"]</t>
+          <t>[JRC Entrou em Landsberg, Alemanha segundo "http://www.conimbricenses.org/encyclopedia/aigenler-adam/"] extra_info: {"value": {"comment": "Golvers, 2019 @wikidata:Q39793", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Ver Brockey, p.230 cit. Carta de A.P. a Viteleschi, de Coimbra, 26 Agosto 1640", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Ver Brockey, p.230 cit. Carta de A.P. a Viteleschi, de Coimbra, 26 Agosto 1640", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v] extra_info: {"value": {"comment": "Brockey, cap.6 n.95", "original": "?"}}</t>
+          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v] extra_info: {"value": {"comment": "@wikidata:Q45412 Brockey, cap.6 n.95", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Segundo Dominguez &amp; O Neil, V.III,p.2961. Franco Imagem...Coimbra,II,4,c.36,p.575", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Segundo Dominguez &amp; O Neil, V.III,p.2961. Franco Imagem...Coimbra,II,4,c.36,p.575", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Franco, 1717, p. 375, Sweet, 20216, p.27@wikidata:Q45412"}}</t>
+          <t>extra_info: {"value": {"comment": "Franco, 1717, p. 375, Sweet, 20216, p.27 @wikidata:Q45412"}}</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 16090502"}, "value": {"comment": "(Franco, 1719, t.II, p. 612)", "original": "?"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 16090502"}, "value": {"comment": "@wikidata:Q45412 (Franco, 1719, t.II, p. 612)", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "\"\"\"Franco, Imagem...Coimbra, v.2 p.616; Barbosa Machado, v.3\"\"\"", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 \"\"\"Franco, Imagem...Coimbra, v.2 p.616; Barbosa Machado, v.3\"\"\"", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Segundo Louis Buglio 1688", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Segundo Louis Buglio 1688", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "MMHM:p.8"}, "value": {"comment": "[Adicionado a partir de Franco, Imagem...Coimbra, II, 522", "original": "?"}}</t>
+          <t>extra_info: {"date": {"comment": "MMHM:p.8"}, "value": {"comment": "[Adicionado a partir de Franco, Imagem...Coimbra, II, 522] @wikidata:Q45412", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "no noviciado"}, "value": {"original": "(Chao-tcheou)"}}</t>
+          <t>extra_info: {"date": {"comment": "no noviciado"}, "value": {"comment": "@wikidata:Q1346617", "original": "(Chao-tcheou)"}}</t>
         </is>
       </c>
     </row>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Corrigido: local de entrada extra_info: {"value": {"comment": "Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA", "original": "?"}}</t>
+          <t>Corrigido: local de entrada extra_info: {"value": {"comment": "@wikidata:Q45412 Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 15600325 ou Coimbra, 25-03-1560 MMHM"}, "value": {"comment": "Domingues &amp; O Neil, IV: 2645. MMHM:p.226", "original": "?"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 15600325 ou Coimbra, 25-03-1560 MMHM"}, "value": {"comment": "@wikidata:Q45412 Domingues &amp; O Neil, IV: 2645. MMHM:p.226", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -22878,7 +22878,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Segungo Dominguez, J. M., &amp; O\u2019Neill, C. (2001) II, 1113", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Segungo Dominguez, J. M., &amp; O\u2019Neill, C. (2001) II, 1113", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Schutte, Monumenta historica japoniae I.,p.1180", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Schutte, Monumenta historica japoniae I.,p.1180", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -24006,7 +24006,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.94 (ARSI Japsin 35 13)", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 MMHM:p.94 (ARSI Japsin 35 13)", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -24224,7 +24224,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.203 (Matias d'Amaia), Schutte, Monumenta historica japoniae I.1234", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 MMHM:p.203 (Matias d'Amaia), Schutte, Monumenta historica japoniae I.1234", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -28805,7 +28805,7 @@
       </c>
       <c r="G804" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.205 (Sebastian da Maia, da Maya, d'Amaya)", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 MMHM:p.205 (Sebastian da Maia, da Maya, d'Amaya)", "original": "?"}}</t>
         </is>
       </c>
     </row>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}, "value": {"original": "Chao-tcheou fou"}}</t>
+          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}, "value": {"comment": "@wikidata: Q1346617", "original": "Chao-tcheou fou"}}</t>
         </is>
       </c>
     </row>
@@ -29019,7 +29019,7 @@
       </c>
       <c r="G810" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Dehergne n\u00e3o especifica local, Brockey estudos Filosofia e Teologia em Coimbra", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Dehergne n\u00e3o especifica local, Brockey estudos Filosofia e Teologia em Coimbra", "original": "?"}}</t>
         </is>
       </c>
     </row>

--- a/notebooks/jesuitas-entrada-full.xlsx
+++ b/notebooks/jesuitas-entrada-full.xlsx
@@ -12650,7 +12650,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12673,7 +12673,11 @@
           <t>Vila Real, diocese de Braga</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr"/>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"original": "? Segundo Sch\u00fctte, p.1174"}}</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -18559,7 +18563,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:@wikidata:Q15041623", "original": "Lisboa, Arroios"}}</t>
+          <t>extra_info: {"value": {"comment": "@wikidata:Q15041623", "original": "Lisboa, Arroios"}}</t>
         </is>
       </c>
     </row>
@@ -28858,7 +28862,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -28881,7 +28885,11 @@
           <t>Castro Daire, diocese de Lamego</t>
         </is>
       </c>
-      <c r="G806" t="inlineStr"/>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "([Sch\u00fctte, 1975, p. 1321] Sebasti\u00e3o Vieira, nasc Castro de Aire, Lamego, E. Coimbra 3-2-1591", "original": "?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="inlineStr">
